--- a/data/trans_camb/P17_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-9,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-6,86</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 0,45</t>
+          <t>-7,41; 0,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -0,81</t>
+          <t>-8,07; -1,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 1,62</t>
+          <t>-6,21; 1,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,08</t>
+          <t>-4,43; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -5,73</t>
+          <t>-0,3; 8,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -1,78</t>
+          <t>0,46; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 4,52</t>
+          <t>-13,85; -5,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,64</t>
+          <t>-9,45; -1,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -4,2</t>
+          <t>-6,85; 2,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -2,55</t>
+          <t>-10,19; -1,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,18</t>
+          <t>1,53; 10,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,44</t>
+          <t>-3,91; 4,67</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; -3,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; -2,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 1,07</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; -0,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 8,07</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 5,08</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,68%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,29%</t>
+          <t>-36,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-16,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,34%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>-44,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-25,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>-11,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-29,95%</t>
+          <t>-26,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-38,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-29,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-13,28%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-17,66%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 4,29</t>
+          <t>-50,75; 2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,7; -5,28</t>
+          <t>-54,06; -10,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 14,8</t>
+          <t>-42,01; 17,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 28,03</t>
+          <t>-30,96; 36,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,45; -29,19</t>
+          <t>-2,01; 87,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,97; -9,17</t>
+          <t>2,89; 72,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 23,9</t>
+          <t>-57,41; -29,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 18,2</t>
+          <t>-39,95; -7,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,57; -25,28</t>
+          <t>-28,48; 10,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-41,04; -15,48</t>
+          <t>-42,51; -8,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 13,38</t>
+          <t>7,89; 73,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 15,06</t>
+          <t>-17,0; 24,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; -24,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-41,89; -15,38</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-26,9; 6,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-31,73; 0,84</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 62,22</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 31,6</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 3,74</t>
+          <t>-8,1; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,4</t>
+          <t>-4,42; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,97</t>
+          <t>-3,27; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,88</t>
+          <t>-4,73; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -2,91</t>
+          <t>0,77; 14,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -0,42</t>
+          <t>-0,66; 12,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 1,39</t>
+          <t>-12,42; -2,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 5,19</t>
+          <t>-9,69; -0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -1,21</t>
+          <t>-7,23; 2,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,09</t>
+          <t>-2,44; 9,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,87</t>
+          <t>-13,59; 0,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,11</t>
+          <t>-10,76; 5,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; -2,57</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 0,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 2,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 5,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 4,81</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 6,51</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-26,93%</t>
+          <t>-38,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-7,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,44%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,28%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,51%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-12,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-7,99%</t>
+          <t>-27,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-36,65%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-17,04%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-6,46%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 39,13</t>
+          <t>-60,44; 13,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 34,76</t>
+          <t>-32,8; 41,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 61,01</t>
+          <t>-24,69; 57,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 72,79</t>
+          <t>-35,77; 44,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -14,13</t>
+          <t>2,79; 164,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,86; -2,04</t>
+          <t>-5,37; 129,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 6,77</t>
+          <t>-51,2; -14,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 23,93</t>
+          <t>-38,62; -1,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,66; -7,33</t>
+          <t>-29,14; 13,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 0,75</t>
+          <t>-10,06; 43,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 12,09</t>
+          <t>-49,23; 2,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 25,11</t>
+          <t>-42,43; 36,55</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; -17,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-31,48; 1,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 15,8</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 35,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-20,53; 29,53</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; 46,16</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,55</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,75</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>-12,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-11,41</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,31</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-15,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-8,17</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-5,5</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-10,91</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-8,18</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-7,65</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,35; -1,87</t>
+          <t>-22,32; -1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 4,36</t>
+          <t>-17,9; 4,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 7,03</t>
+          <t>-15,31; 6,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-12,67; 19,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-21,79; -3,6</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 0,83</t>
+          <t>-21,45; -3,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-20,13; -1,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 1,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-23,49; -4,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-18,49; -4,76</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; -1,55</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-13,19; 1,55</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; -4,2</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; -1,41</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-12,86; 1,76</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-16,23; 2,89</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-56,97%</t>
+          <t>-52,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-12,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-2,25%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-42,98%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>-40,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-38,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-28,01%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-50,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-48,42%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-33,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-22,88%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-45,38%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-34,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-22,2%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-31,8%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,65; -6,67</t>
+          <t>-79,7; -7,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 35,37</t>
+          <t>-66,36; 34,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 60,38</t>
+          <t>-56,79; 55,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-60,2; 135,02</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-64,26; -11,82</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,73; -5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 3,43</t>
+          <t>-65,08; -11,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-59,61; -7,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-50,87; 5,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-69,1; -17,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-66,72; -22,13</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-53,84; -5,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-46,24; 8,23</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-66,59; -18,29</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-54,7; -4,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 9,66</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-58,2; 19,58</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-7,09</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,3</t>
+          <t>-7,5; -1,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -0,47</t>
+          <t>-5,89; -0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,57</t>
+          <t>-4,05; 1,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,62</t>
+          <t>-3,67; 3,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -6,81</t>
+          <t>0,97; 8,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -3,58</t>
+          <t>1,22; 8,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,08</t>
+          <t>-12,15; -6,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,53</t>
+          <t>-8,76; -3,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -4,48</t>
+          <t>-6,35; -0,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -2,68</t>
+          <t>-6,66; 0,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,23</t>
+          <t>-1,68; 5,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,13</t>
+          <t>-3,34; 3,83</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -5,02</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; -2,77</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; -0,04</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,47</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 5,69</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 4,99</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>-24,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-40,92%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>-40,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-26,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-38,07%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-26,1%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-39,06%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-25,6%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-12,16%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,92; -0,96</t>
+          <t>-52,47; -12,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,07; -3,05</t>
+          <t>-40,24; -1,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 13,51</t>
+          <t>-27,39; 16,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 22,66</t>
+          <t>-25,71; 26,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,93; -30,8</t>
+          <t>5,55; 78,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -16,48</t>
+          <t>8,53; 71,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1,23</t>
+          <t>-49,74; -28,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 6,91</t>
+          <t>-35,82; -14,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,86; -25,15</t>
+          <t>-25,84; -0,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; -15,88</t>
+          <t>-27,23; -0,53</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 1,7</t>
+          <t>-7,85; 30,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 6,57</t>
+          <t>-14,36; 20,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-47,88; -28,67</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; -15,96</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; -0,27</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-22,42; 2,72</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 38,84</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 32,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
